--- a/SOAC/Assignment 1 - Sea Breeze/GradientData.xlsx
+++ b/SOAC/Assignment 1 - Sea Breeze/GradientData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>time</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>u_o</t>
+  </si>
+  <si>
+    <t>mean dpdx</t>
   </si>
 </sst>
 </file>
@@ -356,19 +359,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D496"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="B472" sqref="B472"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +385,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -395,8 +402,11 @@
       <c r="D2" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>-2.8176999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -409,8 +419,11 @@
       <c r="D3" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>-2.6547999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -423,8 +436,11 @@
       <c r="D4" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>-2.5989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -437,8 +453,11 @@
       <c r="D5" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>-2.1749000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -451,8 +470,11 @@
       <c r="D6" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>-2.4108000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -465,8 +487,11 @@
       <c r="D7" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>-5.7357999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -479,8 +504,11 @@
       <c r="D8" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>-0.47960999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -493,8 +521,11 @@
       <c r="D9" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>-0.12363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -507,8 +538,11 @@
       <c r="D10" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0.89029999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -521,8 +555,11 @@
       <c r="D11" s="1">
         <v>-7.8282999999999898</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1.5684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -535,8 +572,11 @@
       <c r="D12" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>3.1423000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -549,8 +589,11 @@
       <c r="D13" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>3.044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -563,8 +606,11 @@
       <c r="D14" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>2.2823000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -577,8 +623,11 @@
       <c r="D15" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1.1193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -591,8 +640,11 @@
       <c r="D16" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0.95240999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -605,8 +657,11 @@
       <c r="D17" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>-1.3111999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -619,8 +674,11 @@
       <c r="D18" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>-3.6880000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -633,8 +691,11 @@
       <c r="D19" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>-4.5702999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -647,8 +708,11 @@
       <c r="D20" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>-4.8394000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -661,8 +725,11 @@
       <c r="D21" s="1">
         <v>-6.5015000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>-4.1346999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -675,8 +742,11 @@
       <c r="D22" s="1">
         <v>-7.1649000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>-4.2839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -689,8 +759,11 @@
       <c r="D23" s="1">
         <v>-7.1649000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>-3.3908999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -703,8 +776,11 @@
       <c r="D24" s="1">
         <v>-7.1649000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -717,8 +793,11 @@
       <c r="D25" s="1">
         <v>-7.1649000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1.1257999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -732,7 +811,7 @@
         <v>-7.1649000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -746,7 +825,7 @@
         <v>-7.1649000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -760,7 +839,7 @@
         <v>-7.1649000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -774,7 +853,7 @@
         <v>-7.1649000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -788,7 +867,7 @@
         <v>-7.1649000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -802,7 +881,7 @@
         <v>-7.1649000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
